--- a/Intro materials and keys/Lab Schedule Spring 2025.xlsx
+++ b/Intro materials and keys/Lab Schedule Spring 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamsoliman/Documents/GitHub/Econometrics-Slides/Intro materials and keys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0C07B6-EC93-0148-9802-21655CECB280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABDE708-B248-B449-9B97-95125AEB3F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15180" xr2:uid="{1103A02E-6F1A-EC41-B75E-F74E9889530B}"/>
   </bookViews>
@@ -61,22 +61,22 @@
     <t>Midterm Exam Review</t>
   </si>
   <si>
-    <t>R and R Markdown Overview</t>
-  </si>
-  <si>
     <t>No Lab (Fall Break)</t>
   </si>
   <si>
     <t>Difference-in-Differences</t>
   </si>
   <si>
-    <t>Good coding practices</t>
-  </si>
-  <si>
     <t>RCTs and Causal Inference</t>
   </si>
   <si>
     <t>No Lab (Exam Day)</t>
+  </si>
+  <si>
+    <t>Good coding practices and graphics introduction</t>
+  </si>
+  <si>
+    <t>R and R Markdown Overview + core functions</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -493,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -541,7 +541,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -562,7 +562,7 @@
         <v>45720</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -583,7 +583,7 @@
         <v>45734</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -592,7 +592,7 @@
         <v>45741</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -604,7 +604,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">

--- a/Intro materials and keys/Lab Schedule Spring 2025.xlsx
+++ b/Intro materials and keys/Lab Schedule Spring 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamsoliman/Documents/GitHub/Econometrics-Slides/Intro materials and keys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABDE708-B248-B449-9B97-95125AEB3F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984CF698-512F-7543-A4C5-5D8E06FF16E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15180" xr2:uid="{1103A02E-6F1A-EC41-B75E-F74E9889530B}"/>
   </bookViews>
@@ -447,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8571138B-7620-5047-B230-CB2C76B5C3A8}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,7 +461,7 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -471,11 +471,10 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>45671</v>
+        <v>45670</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -484,10 +483,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <f>A2+7</f>
-        <v>45678</v>
+        <v>45677</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -496,10 +494,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A15" si="0">A3+7</f>
-        <v>45685</v>
+        <v>45684</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -508,10 +505,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <f t="shared" si="0"/>
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -520,10 +516,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <f t="shared" si="0"/>
-        <v>45699</v>
+        <v>45698</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -532,10 +527,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <f t="shared" si="0"/>
-        <v>45706</v>
+        <v>45705</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -544,10 +538,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <f t="shared" si="0"/>
-        <v>45713</v>
+        <v>45712</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -556,19 +549,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <f t="shared" si="0"/>
-        <v>45720</v>
+        <v>45719</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <f t="shared" si="0"/>
-        <v>45727</v>
+        <v>45726</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -577,28 +568,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <f t="shared" si="0"/>
-        <v>45734</v>
+        <v>45733</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <f t="shared" si="0"/>
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <f t="shared" si="0"/>
-        <v>45748</v>
+        <v>45747</v>
       </c>
       <c r="B13" s="1">
         <v>9</v>
@@ -607,10 +595,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <f t="shared" si="0"/>
-        <v>45755</v>
+        <v>45754</v>
       </c>
       <c r="B14" s="1">
         <v>10</v>
@@ -619,10 +606,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <f t="shared" si="0"/>
-        <v>45762</v>
+        <v>45761</v>
       </c>
       <c r="B15" s="1">
         <v>11</v>
@@ -631,10 +617,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <f>A15+7</f>
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B16" s="1">
         <v>12</v>
